--- a/excelFile/excelTestData.xlsx
+++ b/excelFile/excelTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryankatiyar\eclipse-workspace\Flipkart_Project\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B728B5A-7904-41F9-AB41-BD3197200FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EA10FA-CA90-4214-85DE-A0651260D09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -530,7 +532,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -610,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
